--- a/Dataset/Authors/CATO_agr.xlsx
+++ b/Dataset/Authors/CATO_agr.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Vetus_Archivum_Oniga\Auctores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9582A18B-9708-4E94-845C-1CE573DA567D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C9E51A-CFFA-4C71-BAD4-86B715EB242B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{16AF290A-905F-4C45-B900-FB0D79B6E32A}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>Prose</t>
   </si>
   <si>
-    <t>Technical prose</t>
-  </si>
-  <si>
     <t>agricola</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>semodialis</t>
+  </si>
+  <si>
+    <t>Monograph</t>
   </si>
 </sst>
 </file>
@@ -644,7 +644,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -664,7 +664,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="8">
         <v>1</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="8">
         <v>2</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="8">
         <v>2</v>
@@ -688,7 +688,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="8">
         <v>6</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="8">
         <v>4</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="8">
         <v>5</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="8">
         <v>1</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="8">
         <v>1</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="8">
         <v>1</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="8">
         <v>1</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="8">
         <v>1</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="8">
         <v>1</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="8">
         <v>1</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="8">
         <v>1</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="8">
         <v>1</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="8">
         <v>2</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="8">
         <v>2</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="8">
         <v>4</v>
@@ -832,7 +832,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" s="8">
         <v>1</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="8">
         <v>2</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="8">
         <v>2</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="8">
         <v>2</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31" s="8">
         <v>2</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" s="8">
         <v>2</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="8">
         <v>2</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="8">
         <v>5</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35" s="8">
         <v>1</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="8">
         <v>7</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="8">
         <v>1</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="8">
         <v>5</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="8">
         <v>3</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="8">
         <v>2</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" s="8">
         <v>2</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="8">
         <v>1</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43" s="8">
         <v>1</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44" s="8">
         <v>4</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="8">
         <v>8</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46" s="8">
         <v>7</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B47" s="8">
         <v>1</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B48" s="8">
         <v>1</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="8">
         <v>1</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="8">
         <v>1</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B51" s="8">
         <v>12</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B52" s="8">
         <v>1</v>
